--- a/contact/U17B-GREEN.xlsx
+++ b/contact/U17B-GREEN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46583776-3227-4D83-A366-BEFD47ACF0F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949B7A39-3B6D-4FD0-B7E7-E884E4DD01B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U17B-GREEN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -371,6 +371,18 @@
   </si>
   <si>
     <t>0421 072 366</t>
+  </si>
+  <si>
+    <t>Potter, Alex</t>
+  </si>
+  <si>
+    <t>Evans, Caitlen</t>
+  </si>
+  <si>
+    <t>0498 044 434</t>
+  </si>
+  <si>
+    <t>caitlenevans3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1232,21 +1244,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -1261,7 +1273,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1307,286 +1319,286 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>75</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>115</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>116</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>92</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>93</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>94</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>95</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>96</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>97</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -1595,219 +1607,222 @@
         <v>35</v>
       </c>
       <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F22" t="s">
         <v>61</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" t="s">
         <v>69</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E23" t="s">
         <v>70</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>84</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F24" t="s">
         <v>85</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>86</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>88</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>89</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E25" t="s">
         <v>90</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
         <v>91</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>98</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>101</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E26" t="s">
         <v>102</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F26" t="s">
         <v>103</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U17B-GREEN.xlsx
+++ b/contact/U17B-GREEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949B7A39-3B6D-4FD0-B7E7-E884E4DD01B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7B51E2-CD43-4B5A-9105-9429A5DFE3FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U17B-GREEN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -112,54 +112,9 @@
     <t>0488 149 080</t>
   </si>
   <si>
-    <t>Recent Players</t>
-  </si>
-  <si>
-    <t>Akanoa, Jayden-Rae</t>
-  </si>
-  <si>
-    <t>Akanoa, Temata</t>
-  </si>
-  <si>
-    <t>0452 606 619</t>
-  </si>
-  <si>
-    <t>mwalker12@bigpond.com</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Akanoa, Lorenzo</t>
-  </si>
-  <si>
-    <t>akanoataiti@gmail.com</t>
-  </si>
-  <si>
-    <t>Akanoa, Travel</t>
-  </si>
-  <si>
-    <t>0414 501 311</t>
-  </si>
-  <si>
-    <t>Aulsebrook-Walker, Aaron</t>
-  </si>
-  <si>
-    <t>Walker, Matt</t>
-  </si>
-  <si>
-    <t>0488 101 110</t>
-  </si>
-  <si>
-    <t>matthew.walker@lincolnsentry.com.au</t>
-  </si>
-  <si>
-    <t>Aulsebrook, Jacinta</t>
-  </si>
-  <si>
-    <t>0414 085 012</t>
-  </si>
-  <si>
     <t>Bannan, Lachlan</t>
   </si>
   <si>
@@ -178,36 +133,6 @@
     <t>0414 442 294</t>
   </si>
   <si>
-    <t>Bemelmans, Carter</t>
-  </si>
-  <si>
-    <t>Bemelmans, Peter</t>
-  </si>
-  <si>
-    <t>0458 187 946</t>
-  </si>
-  <si>
-    <t>petebem2365@gmail.com</t>
-  </si>
-  <si>
-    <t>Delbridge, Anthony</t>
-  </si>
-  <si>
-    <t>Delbridge, Sally</t>
-  </si>
-  <si>
-    <t>0403 695 229</t>
-  </si>
-  <si>
-    <t>office.cablecom@gmail.com</t>
-  </si>
-  <si>
-    <t>Delbridge, James</t>
-  </si>
-  <si>
-    <t>0401 974 678</t>
-  </si>
-  <si>
     <t>Glenn, Jack</t>
   </si>
   <si>
@@ -220,24 +145,6 @@
     <t>bvanlooy1982@hotmail.com</t>
   </si>
   <si>
-    <t>Green, Aaron</t>
-  </si>
-  <si>
-    <t>Green, Kelly</t>
-  </si>
-  <si>
-    <t>0434 837 267</t>
-  </si>
-  <si>
-    <t>kelly1969@live.com.au</t>
-  </si>
-  <si>
-    <t>Green, Steve</t>
-  </si>
-  <si>
-    <t>0435 308 367</t>
-  </si>
-  <si>
     <t>Humphreys, Max</t>
   </si>
   <si>
@@ -262,42 +169,6 @@
     <t>warwick.kane@gmail.com</t>
   </si>
   <si>
-    <t>Mainenti, Jag</t>
-  </si>
-  <si>
-    <t>Michelle, Hardy</t>
-  </si>
-  <si>
-    <t>0413 047 714</t>
-  </si>
-  <si>
-    <t>michelle.hardy@live.com</t>
-  </si>
-  <si>
-    <t>Mainenti, Paul</t>
-  </si>
-  <si>
-    <t>0402 658 692</t>
-  </si>
-  <si>
-    <t>Obrien, Charlie</t>
-  </si>
-  <si>
-    <t>Davis, Rebecca</t>
-  </si>
-  <si>
-    <t>0474 804 401</t>
-  </si>
-  <si>
-    <t>bexobr@gmail.com</t>
-  </si>
-  <si>
-    <t>OBrien, Dennis</t>
-  </si>
-  <si>
-    <t>0407 026 113</t>
-  </si>
-  <si>
     <t>Scripps, William</t>
   </si>
   <si>
@@ -316,24 +187,6 @@
     <t>0427 885 885</t>
   </si>
   <si>
-    <t>Smith, Kane</t>
-  </si>
-  <si>
-    <t>White, Michelle</t>
-  </si>
-  <si>
-    <t>0402 410 514</t>
-  </si>
-  <si>
-    <t>michelle801@live.com.au</t>
-  </si>
-  <si>
-    <t>Smith, Karl</t>
-  </si>
-  <si>
-    <t>0424 271 571</t>
-  </si>
-  <si>
     <t>Treverton, Kodi</t>
   </si>
   <si>
@@ -383,6 +236,48 @@
   </si>
   <si>
     <t>caitlenevans3@gmail.com</t>
+  </si>
+  <si>
+    <t>bradleighblake@hotmail.com</t>
+  </si>
+  <si>
+    <t>mhiggins@legalsuper.com.au</t>
+  </si>
+  <si>
+    <t>Masterson, Riley</t>
+  </si>
+  <si>
+    <t>Masterson, Todd</t>
+  </si>
+  <si>
+    <t>0498 993 865</t>
+  </si>
+  <si>
+    <t>todd70@live.com.au</t>
+  </si>
+  <si>
+    <t>maxwell.n@optusnet.com.au</t>
+  </si>
+  <si>
+    <t>kylie_scripps@hotmail.com</t>
+  </si>
+  <si>
+    <t>Willoughby, Jayden</t>
+  </si>
+  <si>
+    <t>Slattery, Samantha</t>
+  </si>
+  <si>
+    <t>0407 972 587</t>
+  </si>
+  <si>
+    <t>samslattery84@gmail.com</t>
+  </si>
+  <si>
+    <t>Nicholson, Stephen</t>
+  </si>
+  <si>
+    <t>Bannan, Daniel</t>
   </si>
 </sst>
 </file>
@@ -1244,23 +1139,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1273,7 +1168,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1296,533 +1191,355 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G7" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D10" t="s">
         <v>77</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
         <v>78</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
         <v>79</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U17B-GREEN.xlsx
+++ b/contact/U17B-GREEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7B51E2-CD43-4B5A-9105-9429A5DFE3FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A754E5-F856-4E50-9BF4-88BEB9C81134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U17B-GREEN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -278,6 +278,66 @@
   </si>
   <si>
     <t>Bannan, Daniel</t>
+  </si>
+  <si>
+    <t>Bell, Rory</t>
+  </si>
+  <si>
+    <t>Bell, Richard</t>
+  </si>
+  <si>
+    <t>0409 504 789</t>
+  </si>
+  <si>
+    <t>rich.bell99@gmail.com</t>
+  </si>
+  <si>
+    <t>McGuire-Bell, Felicity</t>
+  </si>
+  <si>
+    <t>0409 423 058</t>
+  </si>
+  <si>
+    <t>felicitymcguirebell@gmail.com</t>
+  </si>
+  <si>
+    <t>Handles-Hughes, Moesen</t>
+  </si>
+  <si>
+    <t>Hughes, Roy</t>
+  </si>
+  <si>
+    <t>0432 014 385</t>
+  </si>
+  <si>
+    <t>rdh14rusty@yahoo.com.au</t>
+  </si>
+  <si>
+    <t>Handley, Jo</t>
+  </si>
+  <si>
+    <t>0434 706 495</t>
+  </si>
+  <si>
+    <t>Quadina, Neirus</t>
+  </si>
+  <si>
+    <t>Boulton, Iris</t>
+  </si>
+  <si>
+    <t>0466 392 984</t>
+  </si>
+  <si>
+    <t>iristoga@hotmail.com</t>
+  </si>
+  <si>
+    <t>Boulton, Scott</t>
+  </si>
+  <si>
+    <t>0432 571 291</t>
+  </si>
+  <si>
+    <t>tupac153@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1239,246 +1299,246 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -1492,47 +1552,116 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>84</v>
       </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
         <v>30</v>
       </c>
     </row>

--- a/contact/U17B-GREEN.xlsx
+++ b/contact/U17B-GREEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A754E5-F856-4E50-9BF4-88BEB9C81134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50F776D-0603-47DC-A0FE-856D9F22727E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -338,6 +338,30 @@
   </si>
   <si>
     <t>tupac153@hotmail.com</t>
+  </si>
+  <si>
+    <t>Barton, Lachlan</t>
+  </si>
+  <si>
+    <t>Barton, Stewart</t>
+  </si>
+  <si>
+    <t>0448 030 117</t>
+  </si>
+  <si>
+    <t>nikki_barton@optusnet.com.au</t>
+  </si>
+  <si>
+    <t>Barton, Nikki</t>
+  </si>
+  <si>
+    <t>0409 190 027</t>
+  </si>
+  <si>
+    <t>Glenn, Bailey</t>
+  </si>
+  <si>
+    <t>Vanlooy, Bianca</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1299,91 +1323,91 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
@@ -1391,277 +1415,323 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>81</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>83</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
         <v>30</v>
       </c>
     </row>

--- a/contact/U17B-GREEN.xlsx
+++ b/contact/U17B-GREEN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50F776D-0603-47DC-A0FE-856D9F22727E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFFDF05-1B64-4894-8895-AA0ED89B82BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="130">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -362,6 +362,54 @@
   </si>
   <si>
     <t>Vanlooy, Bianca</t>
+  </si>
+  <si>
+    <t>Delbridge, Anthony</t>
+  </si>
+  <si>
+    <t>Delbridge, Sally</t>
+  </si>
+  <si>
+    <t>0403 695 229</t>
+  </si>
+  <si>
+    <t>office.cablecom@gmail.com</t>
+  </si>
+  <si>
+    <t>Delbridge, James</t>
+  </si>
+  <si>
+    <t>0401 974 678</t>
+  </si>
+  <si>
+    <t>Lewis, Matthew</t>
+  </si>
+  <si>
+    <t>Lewis, Samantha</t>
+  </si>
+  <si>
+    <t>0423 637 682</t>
+  </si>
+  <si>
+    <t>pslewis@optusnet.com.au</t>
+  </si>
+  <si>
+    <t>Lewis, Peter</t>
+  </si>
+  <si>
+    <t>0412 958 670</t>
+  </si>
+  <si>
+    <t>Willoughby, Jayden Luke</t>
+  </si>
+  <si>
+    <t>0459 332 252</t>
+  </si>
+  <si>
+    <t>samandkids4@gmail.com</t>
+  </si>
+  <si>
+    <t>Slattery, Sam</t>
   </si>
 </sst>
 </file>
@@ -1223,9 +1271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1392,33 +1442,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -1438,22 +1488,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -1461,85 +1511,85 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -1553,186 +1603,255 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>80</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>84</v>
       </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/contact/U17B-GREEN.xlsx
+++ b/contact/U17B-GREEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFFDF05-1B64-4894-8895-AA0ED89B82BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D5348E-6A38-44E7-82DC-575BBDFF1C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="133">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -400,16 +400,25 @@
     <t>0412 958 670</t>
   </si>
   <si>
-    <t>Willoughby, Jayden Luke</t>
-  </si>
-  <si>
-    <t>0459 332 252</t>
-  </si>
-  <si>
-    <t>samandkids4@gmail.com</t>
-  </si>
-  <si>
-    <t>Slattery, Sam</t>
+    <t>Staub, Joseph</t>
+  </si>
+  <si>
+    <t>Staub, Michael  And Lisa</t>
+  </si>
+  <si>
+    <t>0444 547 794</t>
+  </si>
+  <si>
+    <t>dml8@bigpond.com</t>
+  </si>
+  <si>
+    <t>Staub, Ammon or Lisa</t>
+  </si>
+  <si>
+    <t>0444 503 656</t>
+  </si>
+  <si>
+    <t>thomas771177@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1273,9 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1764,94 +1771,94 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
         <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
